--- a/docs/GestaoProjetos/Matriz das Comunicacoes vSistemas.xlsx
+++ b/docs/GestaoProjetos/Matriz das Comunicacoes vSistemas.xlsx
@@ -11,7 +11,7 @@
     <definedName name="Urgencia">#REF!</definedName>
     <definedName name="Where">Legenda!$D$4:$D$9</definedName>
     <definedName name="Impacto">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Comunicacoes!$B$2:$L$14</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Comunicacoes!$B$2:$L$18</definedName>
     <definedName hidden="1" name="Google_Sheet_Link_1368947682">When</definedName>
     <definedName hidden="1" name="Google_Sheet_Link_812271547">Where</definedName>
   </definedNames>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
   <si>
     <t>Matriz das Comunicações</t>
   </si>
@@ -195,6 +195,63 @@
     <t>utilizaremos as tecnologias css, html para desenvolver o front-end do disparos de atividades para atendentes e diretores, como por exemplo as notificações, seria algo mvp para o cliente ter em mãos algo funcionando</t>
   </si>
   <si>
+    <t xml:space="preserve">SPRINT 4 </t>
+  </si>
+  <si>
+    <t>Analisar e fazer uma relação entre o tempo da sprint 3 e o tempo da sprint 4, tomar decisões baseadas nessas analises</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na matriz raci também são estabelecidos todas as atividades das springs sem exceções, anotando sempre os responsáveis pela atividade, o contribuinte da atividade, data, status, informado e adicionando um pequeno comentário.
+Para isso será feito reuniões com o grupo para definir os responsáveis por cada atividade a fim de ter mais organização e controle das </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Tasks.</t>
+    </r>
+  </si>
+  <si>
+    <t>Agendamento de atividades</t>
+  </si>
+  <si>
+    <t>O diretor pode agendar atividades específicas para um ou mais funcionários além de possuir um status para maior controle de disparo das atividades em relação as que foram concluidas</t>
+  </si>
+  <si>
+    <t>O agedamento de atividades será feito utilizando java no back-end, html, css e vue no front-end  baseado nos requisitos do cliente e sua necessidade</t>
+  </si>
+  <si>
+    <t>Catálogo de serviços</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catálogo de serviços seria todos os serviços ativos que nos estamos prestando para o cliente </t>
+  </si>
+  <si>
+    <t>Fabiola e Nache</t>
+  </si>
+  <si>
+    <t>catalogo de serviços</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Catálogo de serviços sera feito baseado no chatbot_helpdesk nivel 1 que seria o nosso serviço ativo, listamos os softwares e tecnologias  </t>
+  </si>
+  <si>
+    <t>Plano de risco</t>
+  </si>
+  <si>
+    <t>Gerenciar os riscos do projeto como um todo descrevendo os processos de risco</t>
+  </si>
+  <si>
+    <t>Fabiola, Nache, Rafael R., Caique</t>
+  </si>
+  <si>
+    <t>plano de risco</t>
+  </si>
+  <si>
+    <t>O plano de risco sera feito analisando os possiveis riscos do projeto, realizar análise quantitativa  e qualitativa de riscos</t>
+  </si>
+  <si>
     <t>Legenda</t>
   </si>
   <si>
@@ -286,6 +343,7 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -297,13 +355,6 @@
       <sz val="11.0"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
     </font>
     <font>
       <u/>
@@ -318,6 +369,13 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF1155CC"/>
     </font>
     <font>
       <u/>
@@ -328,6 +386,7 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -350,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -393,6 +452,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -454,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -519,52 +586,57 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1093,10 +1165,10 @@
       <c r="E7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -1105,10 +1177,10 @@
       <c r="I7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="21" t="s">
         <v>41</v>
       </c>
       <c r="L7" s="15"/>
@@ -1129,21 +1201,21 @@
     </row>
     <row r="8">
       <c r="A8" s="16"/>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>6.0</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="16"/>
@@ -1163,22 +1235,22 @@
     </row>
     <row r="9">
       <c r="A9" s="16"/>
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <v>7.0</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="21" t="s">
         <v>46</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -1187,10 +1259,10 @@
       <c r="I9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="21" t="s">
         <v>49</v>
       </c>
       <c r="L9" s="15"/>
@@ -1211,17 +1283,19 @@
     </row>
     <row r="10">
       <c r="A10" s="16"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="B10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -1239,16 +1313,36 @@
     </row>
     <row r="11">
       <c r="A11" s="16"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="15"/>
+      <c r="B11" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -1267,16 +1361,37 @@
     </row>
     <row r="12">
       <c r="A12" s="16"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="15"/>
+      <c r="B12" s="9">
+        <f t="shared" ref="B12:B14" si="2">B11+1</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
@@ -1295,16 +1410,37 @@
     </row>
     <row r="13">
       <c r="A13" s="16"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="15"/>
+      <c r="B13" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -1323,16 +1459,37 @@
     </row>
     <row r="14">
       <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="15"/>
+      <c r="B14" s="9">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -1351,17 +1508,37 @@
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="B15" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="15"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1379,17 +1556,37 @@
     </row>
     <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="B16" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="15"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1407,17 +1604,37 @@
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="B17" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="15"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1435,17 +1652,37 @@
     </row>
     <row r="18">
       <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="B18" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="15"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1463,17 +1700,17 @@
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1491,17 +1728,17 @@
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1519,17 +1756,17 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -28958,15 +29195,18 @@
       <c r="Z1000" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="$B$2:$L$14"/>
+  <autoFilter ref="$B$2:$L$18"/>
+  <mergeCells count="1">
+    <mergeCell ref="B10:L10"/>
+  </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I3:I14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I3:I9 I11:I21">
       <formula1>Where</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H6 H11:H14">
       <formula1>When</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H7:H14">
+    <dataValidation type="list" allowBlank="1" sqref="H7:H9 H15:H21">
       <formula1>When</formula1>
     </dataValidation>
   </dataValidations>
@@ -28975,6 +29215,12 @@
     <hyperlink r:id="rId2" ref="J5"/>
     <hyperlink r:id="rId3" ref="J6"/>
     <hyperlink r:id="rId4" ref="J7"/>
+    <hyperlink r:id="rId5" ref="J11"/>
+    <hyperlink r:id="rId6" ref="J13"/>
+    <hyperlink r:id="rId7" ref="J14"/>
+    <hyperlink r:id="rId8" ref="J15"/>
+    <hyperlink r:id="rId9" ref="J17"/>
+    <hyperlink r:id="rId10" ref="J18"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.7874015748031497" footer="0.0" header="0.0" left="0.2362204724409449" right="0.31496062992125984" top="0.5905511811023623"/>
@@ -28983,7 +29229,7 @@
     <oddHeader>&amp;LPMO Escritório de Projetos&amp;R&amp;F</oddHeader>
     <oddFooter>&amp;Lhttp://escritoriodeprojetos.com.br&amp;R&amp;P de </oddFooter>
   </headerFooter>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -29035,14 +29281,14 @@
     </row>
     <row r="2">
       <c r="A2" s="1"/>
-      <c r="B2" s="30" t="s">
-        <v>50</v>
+      <c r="B2" s="34" t="s">
+        <v>66</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>51</v>
+      <c r="C2" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -29069,14 +29315,14 @@
     </row>
     <row r="3">
       <c r="A3" s="1"/>
-      <c r="B3" s="32" t="s">
-        <v>53</v>
+      <c r="B3" s="36" t="s">
+        <v>69</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>54</v>
+      <c r="C3" s="37" t="s">
+        <v>70</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>55</v>
+      <c r="D3" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -29103,14 +29349,14 @@
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="32" t="s">
-        <v>56</v>
+      <c r="B4" s="36" t="s">
+        <v>72</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>57</v>
+      <c r="C4" s="38" t="s">
+        <v>73</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>58</v>
+      <c r="D4" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -29137,12 +29383,12 @@
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="36"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>60</v>
+      <c r="D5" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -29169,12 +29415,12 @@
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="36"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>62</v>
+      <c r="D6" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -29201,12 +29447,12 @@
     </row>
     <row r="7">
       <c r="A7" s="1"/>
-      <c r="B7" s="36"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>64</v>
+      <c r="D7" s="40" t="s">
+        <v>80</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -29233,11 +29479,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="36"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="1"/>
@@ -29265,11 +29511,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1"/>
-      <c r="B9" s="36"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1"/>
@@ -29297,11 +29543,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="36"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -29327,11 +29573,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="1"/>
@@ -29359,11 +29605,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41" t="s">
-        <v>66</v>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44" t="s">
+        <v>82</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
